--- a/biology/Botanique/Lepidobotryaceae/Lepidobotryaceae.xlsx
+++ b/biology/Botanique/Lepidobotryaceae/Lepidobotryaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Lépidobotryacées regroupe des plantes dicotylédones. Elle ne comprend que 1 à 3 espèces dont Lepidobotrys staudtii, un arbuste originaire d'Afrique tropicale, espèce anciennement située dans les Oxalidacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Lepidobotrys dérivé de lepis, écaille, et botry, grappe, signifiant « grappe d'écailles », en référence à la disposition en forme de cône de ses bractées, qui s'étendent sous les fleurs.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010)[1] et NCBI  (4 mai 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010) et NCBI  (4 mai 2010) :
 genre Lepidobotrys (en) Engl.
 genre Ruptiliocarpon
-Selon DELTA Angio           (4 mai 2010)[3] :
+Selon DELTA Angio           (4 mai 2010) :
 genre Lepidobotrys</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) :
 genre Lepidobotrys
 Lepidobotrys staudtii
 genre Ruptiliocarpon
